--- a/data/long_dif/P24_1-Estudios-long_dif.xlsx
+++ b/data/long_dif/P24_1-Estudios-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>25,03%</t>
+          <t>22,34%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>26,63%</t>
+          <t>31,88%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>31,35%</t>
+          <t>31,9%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>23,42%</t>
+          <t>18,72%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>23,12%</t>
+          <t>19,85%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>29,03%</t>
+          <t>22,96%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>24,16%</t>
+          <t>29,62%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>24,68%</t>
+          <t>18,81%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>30,08%</t>
+          <t>21,01%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>26,92%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>30,67%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>18,78%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,47; 37,42</t>
+          <t>14,05; 31,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18,7; 41,49</t>
+          <t>21,8; 55,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,3; 43,49</t>
+          <t>24,44; 46,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,67; 30,72</t>
+          <t>10,06; 27,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,67; 29,2</t>
+          <t>13,23; 27,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,55; 35,07</t>
+          <t>16,75; 30,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,88; 30,64</t>
+          <t>24,15; 35,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,55; 32,55</t>
+          <t>12,96; 26,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>25,79; 36,57</t>
+          <t>15,31; 27,11</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>21,1; 38,05</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>26,15; 38,54</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>13,07; 24,83</t>
         </is>
       </c>
     </row>
@@ -733,52 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>40,87%</t>
+          <t>40,79%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>48,98%</t>
+          <t>42,66%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>51,45%</t>
+          <t>50,75%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>55,1%</t>
+          <t>40,81%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>47,1%</t>
+          <t>55,33%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>47,34%</t>
+          <t>41,79%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>48,52%</t>
+          <t>45,54%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>47,94%</t>
+          <t>42,71%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>49,2%</t>
+          <t>48,58%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>42,18%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>47,95%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>41,89%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>31,05; 50,65</t>
+          <t>27,92; 52,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>38,58; 61,96</t>
+          <t>28,01; 52,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>41,71; 59,21</t>
+          <t>39,9; 58,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>47,14; 61,82</t>
+          <t>24,74; 51,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,81; 55,81</t>
+          <t>45,63; 64,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>40,27; 55,0</t>
+          <t>33,67; 51,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>41,26; 54,49</t>
+          <t>39,61; 51,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>41,59; 55,71</t>
+          <t>34,64; 51,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>43,91; 54,45</t>
+          <t>39,8; 55,67</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>34,62; 48,72</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>42,08; 53,13</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>34,23; 49,4</t>
         </is>
       </c>
     </row>
@@ -839,52 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>34,1%</t>
+          <t>36,87%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>24,39%</t>
+          <t>25,46%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,21%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>21,49%</t>
+          <t>40,47%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>29,78%</t>
+          <t>24,82%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>23,63%</t>
+          <t>35,25%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>27,32%</t>
+          <t>24,83%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>27,38%</t>
+          <t>38,48%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>20,73%</t>
+          <t>30,42%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>30,9%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>21,38%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>39,33%</t>
         </is>
       </c>
     </row>
@@ -897,104 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>24,26; 48,18</t>
+          <t>25,45; 54,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,17; 32,17</t>
+          <t>16,86; 34,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,94; 23,03</t>
+          <t>12,07; 23,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,41; 28,04</t>
+          <t>28,51; 66,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,57; 37,38</t>
+          <t>16,82; 34,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,21; 30,21</t>
+          <t>27,46; 43,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,95; 35,29</t>
+          <t>19,78; 30,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,18; 32,59</t>
+          <t>30,2; 47,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,05; 24,33</t>
+          <t>23,52; 41,47</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>24,6; 37,44</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>17,38; 25,45</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>31,77; 49,52</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>24,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>32,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>26,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>30,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>29,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>27,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>30,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>25,58%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,31; 30,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,61; 38,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,89; 31,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,52; 35,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,02; 33,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,19; 28,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,65; 31,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,24; 34,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,45; 28,62</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>49,16%</t>
+          <t>20,15%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>45,05%</t>
+          <t>32,84%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>47,11%</t>
+          <t>26,41%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>46,76%</t>
+          <t>29,45%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>45,22%</t>
+          <t>30,63%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>44,5%</t>
+          <t>30,25%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>47,95%</t>
+          <t>25,11%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>45,14%</t>
+          <t>29,08%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>45,84%</t>
+          <t>25,58%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>31,53%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>25,77%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>29,27%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>43,41; 54,61</t>
+          <t>15,55; 25,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>39,7; 50,91</t>
+          <t>26,76; 41,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>41,68; 52,82</t>
+          <t>22,3; 31,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>42,38; 51,14</t>
+          <t>23,9; 35,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>40,54; 50,1</t>
+          <t>25,38; 36,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>40,02; 48,97</t>
+          <t>24,76; 35,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>44,28; 51,22</t>
+          <t>21,23; 29,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>41,15; 48,79</t>
+          <t>24,35; 33,75</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>42,29; 49,46</t>
+          <t>21,79; 29,48</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>27,57; 36,29</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>23,09; 29,04</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>25,58; 33,28</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>26,5%</t>
+          <t>47,67%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>22,91%</t>
+          <t>44,51%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>26,54%</t>
+          <t>46,83%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>22,52%</t>
+          <t>42,61%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>25,4%</t>
+          <t>46,05%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>30,74%</t>
+          <t>44,82%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>24,51%</t>
+          <t>44,37%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>24,14%</t>
+          <t>41,28%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>28,59%</t>
+          <t>46,83%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>44,66%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>45,63%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>41,97%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,34; 32,71</t>
+          <t>40,15; 54,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>18,85; 27,11</t>
+          <t>38,17; 50,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>21,61; 31,47</t>
+          <t>41,78; 52,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,36; 26,33</t>
+          <t>35,44; 49,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>21,1; 30,26</t>
+          <t>40,14; 51,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>27,23; 34,92</t>
+          <t>39,39; 50,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,5; 28,0</t>
+          <t>40,4; 49,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>21,41; 27,76</t>
+          <t>35,76; 46,83</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>25,44; 31,75</t>
+          <t>42,17; 51,41</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>40,53; 49,17</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>42,11; 49,29</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>37,45; 46,05</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>23,99%</t>
+          <t>32,18%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>27,67%</t>
+          <t>22,65%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>26,4%</t>
+          <t>26,76%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>28,75%</t>
+          <t>27,94%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>31,84%</t>
+          <t>23,32%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>29,83%</t>
+          <t>24,93%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>26,41%</t>
+          <t>30,52%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>29,79%</t>
+          <t>29,64%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>28,18%</t>
+          <t>27,59%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>23,8%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>28,59%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>28,76%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>19,27; 29,82</t>
+          <t>25,77; 41,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>22,18; 34,42</t>
+          <t>18,27; 27,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>21,39; 31,49</t>
+          <t>21,67; 32,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>24,31; 33,83</t>
+          <t>22,46; 36,98</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>27,15; 36,93</t>
+          <t>18,3; 29,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>25,6; 34,13</t>
+          <t>20,55; 30,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>22,93; 30,12</t>
+          <t>26,69; 34,44</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>26,01; 33,77</t>
+          <t>24,79; 35,25</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>25,17; 31,57</t>
+          <t>23,78; 33,04</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>20,64; 27,47</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>25,15; 31,9</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>25,29; 33,51</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>49,51%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>48,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>49,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>44,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>38,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>44,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>46,78%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>43,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>46,56%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>43,82; 56,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>41,8; 54,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>43,43; 54,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>38,42; 49,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>33,19; 43,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>39,51; 49,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>42,43; 50,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>38,98; 47,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>43,14; 50,23</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>26,5%</t>
+          <t>26,05%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>24,0%</t>
+          <t>28,35%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>24,45%</t>
+          <t>25,99%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>27,11%</t>
+          <t>25,58%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>29,88%</t>
+          <t>26,42%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>26,0%</t>
+          <t>31,09%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>26,81%</t>
+          <t>29,86%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>27,0%</t>
+          <t>26,78%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>25,26%</t>
+          <t>26,25%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>29,76%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>27,99%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>26,2%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>21,12; 32,24</t>
+          <t>19,58; 33,01</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>18,89; 29,26</t>
+          <t>22,51; 34,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>20,11; 29,35</t>
+          <t>21,35; 31,04</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>22,56; 31,87</t>
+          <t>19,99; 31,33</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>24,91; 35,02</t>
+          <t>21,27; 32,92</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>22,0; 29,92</t>
+          <t>26,01; 36,66</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>23,1; 30,76</t>
+          <t>25,61; 34,38</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>23,65; 31,01</t>
+          <t>22,43; 31,48</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>22,19; 28,15</t>
+          <t>22,24; 30,79</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>25,95; 34,23</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>24,66; 31,62</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>22,26; 29,69</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>24,38%</t>
+          <t>45,8%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>29,59%</t>
+          <t>47,4%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>27,42%</t>
+          <t>48,82%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>28,49%</t>
+          <t>44,79%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>28,7%</t>
+          <t>47,06%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>27,42%</t>
+          <t>37,68%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>26,48%</t>
+          <t>43,87%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>29,14%</t>
+          <t>39,19%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>27,42%</t>
+          <t>46,47%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>42,4%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>46,26%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>41,89%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>21,16; 28,54</t>
+          <t>38,68; 53,21</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>25,77; 33,53</t>
+          <t>41,25; 54,71</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>24,37; 31,35</t>
+          <t>43,36; 54,61</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>25,65; 31,48</t>
+          <t>37,43; 51,22</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>26,0; 32,19</t>
+          <t>40,22; 53,46</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>24,87; 30,2</t>
+          <t>32,49; 43,84</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>24,22; 28,76</t>
+          <t>39,13; 48,53</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>26,49; 31,64</t>
+          <t>34,09; 44,67</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>25,33; 29,8</t>
+          <t>41,33; 51,52</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>38,06; 47,11</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>42,36; 49,99</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>37,81; 45,81</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>47,57%</t>
+          <t>28,15%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>46,87%</t>
+          <t>24,25%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>48,65%</t>
+          <t>25,19%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>47,89%</t>
+          <t>29,63%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>43,46%</t>
+          <t>26,53%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>45,08%</t>
+          <t>31,23%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>47,73%</t>
+          <t>26,27%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>45,12%</t>
+          <t>34,04%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>46,83%</t>
+          <t>27,28%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>27,84%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>25,75%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>31,91%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>43,94; 51,51</t>
+          <t>21,88; 38,08</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>42,86; 50,82</t>
+          <t>19,19; 30,2</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>45,07; 52,58</t>
+          <t>20,62; 29,83</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>44,66; 51,07</t>
+          <t>24,37; 39,26</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>40,05; 46,83</t>
+          <t>21,34; 32,98</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>42,0; 48,07</t>
+          <t>26,17; 36,75</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>45,23; 50,17</t>
+          <t>22,28; 30,36</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>42,45; 48,06</t>
+          <t>29,06; 39,65</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>44,46; 49,33</t>
+          <t>22,88; 32,13</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>23,92; 31,57</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>22,9; 29,3</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>28,2; 36,75</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>28,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>23,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>23,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>23,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>27,83%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>27,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>25,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>25,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>25,75%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1863,60 +2228,1179 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>24,48; 32,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>20,43; 26,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>21,28; 27,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>21,04; 26,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>24,88; 30,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>25,12; 30,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>23,62; 28,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>23,66; 28,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>23,71; 27,72</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>27,25%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>27,96%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>28,8%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>30,73%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>28,0%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>29,26%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>22,45; 34,56</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>20,97; 35,86</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>24,59; 34,12</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>24,16; 38,43</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>24,7; 32,13</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>23,6; 34,74</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>51,4%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>49,39%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>47,34%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>48,53%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>49,44%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>48,99%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>44,98; 57,25</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>41,83; 59,22</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>41,96; 52,45</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>40,45; 56,15</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>45,4; 53,36</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>42,78; 55,15</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>21,35%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>22,65%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>23,86%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>20,74%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>22,56%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>21,75%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>16,55; 26,05</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>15,91; 29,66</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>19,48; 28,67</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>14,91; 27,1</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>19,72; 26,23</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>17,24; 26,49</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>24,47%</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>30,49%</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>27,41%</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>26,09%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>27,8%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>29,39%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>27,71%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>25,82%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>26,17%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>29,93%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>27,56%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>25,95%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>21,35; 27,97</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>26,55; 35,23</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>24,43; 31,36</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>22,27; 30,28</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>25,4; 30,75</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>26,48; 32,52</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>25,11; 30,18</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>22,88; 28,84</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>24,25; 28,5</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>27,51; 32,72</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>25,59; 29,78</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>23,42; 28,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>48,14%</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>46,05%</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>48,27%</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>43,01%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>47,81%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>42,96%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>44,48%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>40,9%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>47,97%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>44,48%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>46,34%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>41,93%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>43,86; 51,98</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>42,06; 50,45</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>44,77; 51,66</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>38,11; 47,37</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>44,69; 50,93</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>39,62; 45,92</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>41,88; 47,59</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>36,96; 44,6</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>45,38; 50,35</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>41,94; 46,95</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>43,88; 48,44</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>38,69; 44,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>27,4%</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>23,47%</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>24,32%</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>30,89%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>24,39%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>27,65%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>27,8%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>33,29%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>25,86%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>25,6%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>26,09%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>32,12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>24,19; 31,62</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>20,63; 26,26</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>21,55; 27,54</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>26,76; 38,28</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>21,8; 27,08</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>24,96; 30,76</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>25,44; 30,35</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>29,7; 36,71</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>23,68; 28,24</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>23,21; 27,76</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>24,22; 28,07</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>29,31; 35,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="9">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
